--- a/ProjetHTMLei5/public/templates/eleves.xlsx
+++ b/ProjetHTMLei5/public/templates/eleves.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="13940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19520"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,15 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Nom</t>
   </si>
   <si>
     <t>Prénom</t>
-  </si>
-  <si>
-    <t>Moyenne</t>
   </si>
 </sst>
 </file>
@@ -54,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +59,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,7 +353,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -348,24 +361,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
